--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
@@ -139,9 +139,6 @@
 Charges</t>
   </si>
   <si>
-    <t>Misc Charges</t>
-  </si>
-  <si>
     <t>Swachh Bharat Cess</t>
   </si>
   <si>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>Misc 
+Charges</t>
   </si>
 </sst>
 </file>
@@ -409,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -417,36 +418,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,71 +511,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,23 +812,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="14.5" style="12"/>
+    <col min="1" max="1" width="1.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -824,387 +839,418 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="20">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24" t="s">
+      <c r="C22" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="25">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="1"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B30:F30"/>
+  <mergeCells count="5">
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:F29"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>{meta:invoice_type}</t>
   </si>
@@ -150,6 +150,9 @@
   <si>
     <t>Misc 
 Charges</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -490,6 +493,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,6 +511,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,28 +532,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,7 +818,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -843,14 +846,14 @@
     </row>
     <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -974,15 +977,15 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -1040,13 +1043,15 @@
       <c r="F16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1207,40 +1212,40 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="26"/>
       <c r="I30" s="1"/>
     </row>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/templates/anuj/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/templates/anuj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -190,6 +190,18 @@
       <sz val="18"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -410,8 +422,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -539,7 +553,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -818,7 +834,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1130,7 +1146,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="7">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1147,7 +1163,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="7">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1258,5 +1274,6 @@
     <mergeCell ref="D12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
@@ -159,36 +159,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Cambria"/>
     </font>
     <font>
       <u/>
@@ -201,6 +176,26 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="3">
@@ -424,25 +419,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -450,107 +445,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -831,25 +823,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="14.5" style="11"/>
+    <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -862,204 +854,204 @@
     </row>
     <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="1"/>
@@ -1067,91 +1059,97 @@
     </row>
     <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="27">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="20">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="11">
         <v>0.5</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="12" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="1"/>
@@ -1159,42 +1157,40 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="12"/>
+      <c r="B24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19" t="s">
+      <c r="B25" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="1"/>
@@ -1202,74 +1198,59 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="12"/>
+      <c r="B27" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:G28"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D12:G12"/>
   </mergeCells>

--- a/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-CashMain-v4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -135,10 +135,6 @@
 Charges</t>
   </si>
   <si>
-    <t>Additional
-Charges</t>
-  </si>
-  <si>
     <t>Swachh Bharat Cess</t>
   </si>
   <si>
@@ -153,6 +149,10 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Addl
+Charges</t>
   </si>
 </sst>
 </file>
@@ -170,32 +170,38 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -327,17 +333,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -406,14 +401,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -422,7 +432,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -430,6 +440,96 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,110 +539,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -825,16 +850,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
@@ -854,268 +879,268 @@
     </row>
     <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="19">
         <v>14</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="1"/>
@@ -1123,16 +1148,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8">
         <v>0.5</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="1"/>
@@ -1140,16 +1165,16 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8">
         <v>0.5</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="1"/>
@@ -1157,25 +1182,25 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="1"/>
@@ -1183,14 +1208,14 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="31" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="1"/>
@@ -1198,52 +1223,52 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="1"/>
     </row>
   </sheetData>
